--- a/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(K)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(K).xlsx
+++ b/biology/Botanique/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(K)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(K).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kal
-Kalanchoeae - fam. Crassulacées (plante grasse)
+          <t>Kal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kalanchoeae - fam. Crassulacées (plante grasse)
 Kalanchoeae blossfeldiana - Kalanchoé
 Kalmia- Éricacées (plante de tourbière)
 Kalmia angustifolia - Kalmia
@@ -529,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,16 +566,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ken
-Kentia (palmier)
-Kentia howeia
-Ker
-Kerria- (arbuste)
-Kerria japonica - Corète du Japon
-Ket
-Keteleeria
-Keteleeria chien-peii flous
-</t>
+          <t>Ken</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kentia (palmier)
+Kentia howeia</t>
         </is>
       </c>
     </row>
@@ -568,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,14 +598,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ki</t>
+          <t>Ke</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kic
-Kickxia - Scrophulariacées
-Kickxia elatine - Linaire élatine</t>
+          <t>Ker</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kerria- (arbuste)
+Kerria japonica - Corète du Japon</t>
         </is>
       </c>
     </row>
@@ -600,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,62 +635,249 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Ke</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ket</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keteleeria
+Keteleeria chien-peii flous
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ki</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kickxia - Scrophulariacées
+Kickxia elatine - Linaire élatine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Kn</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kna
-Knautia -Dipsacacées
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kna</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knautia -Dipsacacées
 Knautia arvensis
 Knautia dipsacifolia
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ko</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Koc
-Kochia - Chénopodiacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Koc</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kochia - Chénopodiacées
 Kochia scoparia tricophylla
-Kochia scoparia tricopylla Childsii
-Koe
-Koeleria
+Kochia scoparia tricopylla Childsii</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ko</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Koe</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Koeleria
 Koeleria cristata - Koeleria accrêté
 Koelreuteria
 Koelreuteria formosana
 Koelreuteria paniculata
 Koenigia - Polygonacées
-Koenigia islandica
-Kol
-Kolkwitzia - (arbuste)
-Kolkwitzia amabilis
-Kos
-Kosteletzkya
+Koenigia islandica</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ko</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kol</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Kolkwitzia - (arbuste)
+Kolkwitzia amabilis</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(K)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ko</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kos</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kosteletzkya
 Kosteletzkya pentacarpos - Kosteletzkya à cinq fruits
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
